--- a/inst/drug.xlsx
+++ b/inst/drug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F698CB-A012-43E3-84E6-3C6B882E8863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC4B273-4B87-4C7C-88AF-E7743ED8B09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="36" windowWidth="23028" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="24" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>drug_type</t>
   </si>
   <si>
-    <t>type</t>
+    <t>drug_amount</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>CMTRT</t>
   </si>
   <si>
-    <t>drug_amount</t>
+    <t>CMDOSE</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,10 +367,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
